--- a/biology/Botanique/Nerisyrenia_camporum/Nerisyrenia_camporum.xlsx
+++ b/biology/Botanique/Nerisyrenia_camporum/Nerisyrenia_camporum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nerisyrenia camporum est une espèce de plantes à fleurs de la famille des Brassicaceae, originaire du continent nord-américain.
 </t>
@@ -513,12 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-Cette plante de 20 à 60 cm de hauteur forme des touffes de tiges feuillées ramifiées. La présence de poils à sa surface la rend grisâtre. Les feuilles sont lancéolées, dentées, à pédoncule court, et mesurent de 1,3 à 6,3 cm de long[1].
-Appareil reproducteur
-La floraison a lieu de février à octobre.
-L'inflorescence est une grappe portée par l'extrémité des tiges. Les fleurs sont blanches ou mauves. Chaque fleur mesure 2 cm de diamètre et comporte 4 pétales.
-Le fruit est une silique de 1,3 à 3,8 cm de long, étroite mais épaissie, tenue érigée[1].
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante de 20 à 60 cm de hauteur forme des touffes de tiges feuillées ramifiées. La présence de poils à sa surface la rend grisâtre. Les feuilles sont lancéolées, dentées, à pédoncule court, et mesurent de 1,3 à 6,3 cm de long.
 </t>
         </is>
       </c>
@@ -544,10 +557,51 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Description morphologique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La floraison a lieu de février à octobre.
+L'inflorescence est une grappe portée par l'extrémité des tiges. Les fleurs sont blanches ou mauves. Chaque fleur mesure 2 cm de diamètre et comporte 4 pétales.
+Le fruit est une silique de 1,3 à 3,8 cm de long, étroite mais épaissie, tenue érigée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Nerisyrenia_camporum</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nerisyrenia_camporum</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette plante pousse sur les sols rocailleux calcaires des déserts et plaines arides. Son aire de répartition s'étend, au nord, du Texas au Nouveau-Mexique aux États-Unis jusqu'au nord du Mexique au sud.
 </t>
